--- a/範本/查詢完成.xlsx
+++ b/範本/查詢完成.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L100"/>
+  <dimension ref="A1:L111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1061,7 +1061,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>非營業中</t>
+          <t>停業副本</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1109,7 +1109,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>非營業中</t>
+          <t>停業</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1157,7 +1157,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>非營業中</t>
+          <t>停業副本</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1877,7 +1877,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>非營業中</t>
+          <t>停業</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2403,7 +2403,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>非營業中</t>
+          <t>停業副本</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2451,7 +2451,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>非營業中</t>
+          <t>停業副本</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2927,7 +2927,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>非營業中</t>
+          <t>停業副本</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -3311,7 +3311,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>非營業中</t>
+          <t>停業副本</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -3407,7 +3407,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>營業中</t>
+          <t>復業</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -3835,7 +3835,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>非營業中</t>
+          <t>停業副本</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -4075,7 +4075,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>非營業中</t>
+          <t>停業副本</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -4123,7 +4123,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>非營業中</t>
+          <t>停業</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -4267,7 +4267,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>非營業中</t>
+          <t>停業</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -4315,7 +4315,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>非營業中</t>
+          <t>停業</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -4555,7 +4555,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>非營業中</t>
+          <t>停業副本</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -4699,7 +4699,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>非營業中</t>
+          <t>停業副本</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -4747,7 +4747,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>非營業中</t>
+          <t>停業副本</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -4795,7 +4795,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>非營業中</t>
+          <t>停業</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -4843,7 +4843,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>非營業中</t>
+          <t>停業</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -4891,7 +4891,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>營業中</t>
+          <t>復業</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -4939,7 +4939,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>非營業中</t>
+          <t>停業</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -4987,7 +4987,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>非營業中</t>
+          <t>停業</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -5131,7 +5131,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>非營業中</t>
+          <t>停業副本</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -5179,7 +5179,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>營業中</t>
+          <t>復業副本</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -5219,6 +5219,446 @@
         </is>
       </c>
       <c r="L100" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>復業</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>80412193</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>五正明建設股份有限公司</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>杜漢光</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>高雄市</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>公司</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>停業</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>80415044</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>瑞普科技有限公司</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>呂誌和</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>公司</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>復業</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>80422988</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>德意治科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>鄭翠娟</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>新竹縣</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>公司</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>復業副本</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>80440888</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>展騏科技有限公司</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>蔡漢儀</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>公司</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>復業</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>80454989</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>立韋實業有限公司</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>黃銘偉</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>臺中市</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>公司</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>停業</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>80467366</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>勵仁國際有限公司</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>孫立人</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>臺北市</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>公司</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>復業副本</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>80469358</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>盛鐵精密股份有限公司</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>黃奇郎</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>彰化縣</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>公司</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>復業</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>80477287</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>全方位開發有限公司</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>無資料</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>公司</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>復業</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>80485293</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>小魚兒國際行銷股份有限公司</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>林靜霖</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>彰化縣</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>公司</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>復業</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>80500105</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>上洺工程有限公司</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>王江立</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>高雄市</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>公司</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>復業</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>80504427</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>富凡妮有限公司</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>陳宜青</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>公司</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
         <is>
           <t>未知</t>
         </is>
@@ -5235,7 +5675,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5319,7 +5759,11 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=00011306</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>{'Business_Accounting_NO': '00011306', 'Company_Status_Desc': '核准設立', 'Company_Name': '瑪朱有限公司', 'Capital_Stock_Amount': 550000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': 'MARVIN ALEXANDER WIMMERS', 'Company_Location': '臺北市中正區忠孝東路1段152號12樓之6', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '1130827', 'Change_Of_Approval_Data': '', 'Revoke_App_Date': '', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=00011306'}</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5355,7 +5799,11 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=00029376</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>{'Business_Accounting_NO': '00029376', 'Company_Status_Desc': '核准設立', 'Company_Name': '簡單資訊有限公司', 'Capital_Stock_Amount': 50000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '呂承紘', 'Company_Location': '基隆市安樂區七賢里安和一街二巷18-1號二樓', 'Register_Organization_Desc': '商業發展署(實收資本額未達5億元)', 'Company_Setup_Date': '1130808', 'Change_Of_Approval_Data': '', 'Revoke_App_Date': '', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=00029376'}</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -5391,7 +5839,11 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=00653780</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>{'Business_Accounting_NO': '00653780', 'Company_Status_Desc': '核准設立', 'Company_Name': '大隆冷凍食品股份有限公司', 'Capital_Stock_Amount': 25000000, 'Paid_In_Capital_Amount': 25000000, 'Responsible_Name': '張學崇', 'Company_Location': '基隆市中正區調和街118號', 'Register_Organization_Desc': '經濟部中部辦公室', 'Company_Setup_Date': '0610506', 'Change_Of_Approval_Data': '0961009', 'Revoke_App_Date': '       ', 'Case_Status': None, 'Case_Status_Desc': None, 'Sus_App_Date': '       ', 'Sus_Beg_Date': '       ', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=00653780'}</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5427,7 +5879,11 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=00659102</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>{'Business_Accounting_NO': '00659102', 'Company_Status_Desc': '核准設立', 'Company_Name': '海灣兄弟股份有限公司', 'Capital_Stock_Amount': 4500000, 'Paid_In_Capital_Amount': 4500000, 'Responsible_Name': '李黃錦雲', 'Company_Location': '基隆市中正區港通里義一路208之5號', 'Register_Organization_Desc': '經濟部中部辦公室', 'Company_Setup_Date': '0630216', 'Change_Of_Approval_Data': '1100817', 'Revoke_App_Date': '', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=00659102'}</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5463,7 +5919,11 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=00701122</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>{'Business_Accounting_NO': '00701122', 'Company_Status_Desc': '核准設立', 'Company_Name': '臺聯貨櫃通運股份有限公司', 'Capital_Stock_Amount': 840000000, 'Paid_In_Capital_Amount': 648000000, 'Responsible_Name': '簡東\uf0a9', 'Company_Location': '基隆市七堵區堵南里8鄰三合街2號', 'Register_Organization_Desc': '經濟部商業司', 'Company_Setup_Date': '0620716', 'Change_Of_Approval_Data': '1120426', 'Revoke_App_Date': '', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=00701122'}</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -8022,6 +8482,446 @@
       <c r="H70" t="inlineStr">
         <is>
           <t>{'Business_Accounting_NO': '04349740', 'Company_Status_Desc': '核准設立', 'Company_Name': '承暉企業有限公司', 'Capital_Stock_Amount': 5000000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '魏玉秀', 'Company_Location': '臺北市大同區承德路3段159巷9號1樓', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0761106', 'Change_Of_Approval_Data': '1080319', 'Revoke_App_Date': '', 'Case_Status': '3', 'Case_Status_Desc': '復業副本', 'Sus_App_Date': '1080905', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04349740'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>五正明建設股份有限公司</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>80412193</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>20650000</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>復業</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>杜漢光</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80412193</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>{'Business_Accounting_NO': '80412193', 'Company_Status_Desc': '核准設立', 'Company_Name': '五正明建設股份有限公司', 'Capital_Stock_Amount': 20650000, 'Paid_In_Capital_Amount': 20650000, 'Responsible_Name': '杜漢光', 'Company_Location': '高雄市三民區聯興路145巷38號地下層', 'Register_Organization_Desc': '高雄市政府經濟發展局', 'Company_Setup_Date': '0920606', 'Change_Of_Approval_Data': '1120107', 'Revoke_App_Date': '', 'Case_Status': '3', 'Case_Status_Desc': '復業', 'Sus_App_Date': '1121206', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80412193'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>瑞普科技有限公司</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>80415044</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>停業</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>呂誌和</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80415044</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>{'Business_Accounting_NO': '80415044', 'Company_Status_Desc': '核准設立', 'Company_Name': '瑞普科技有限公司', 'Capital_Stock_Amount': 1000000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '呂誌和', 'Company_Location': '新北市土城區清水路223號', 'Register_Organization_Desc': '新北市政府', 'Company_Setup_Date': '0920611', 'Change_Of_Approval_Data': '1050519', 'Revoke_App_Date': '', 'Case_Status': '1', 'Case_Status_Desc': '停業', 'Sus_App_Date': '', 'Sus_Beg_Date': '1130719', 'Sus_End_Date': '1140718', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80415044'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>德意治科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>80422988</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>復業</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>鄭翠娟</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80422988</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>{'Business_Accounting_NO': '80422988', 'Company_Status_Desc': '核准設立', 'Company_Name': '德意治科技股份有限公司', 'Capital_Stock_Amount': 5000000, 'Paid_In_Capital_Amount': 5000000, 'Responsible_Name': '鄭翠娟', 'Company_Location': '新竹縣竹北市北崙里博愛街33號1樓', 'Register_Organization_Desc': '商業發展署(南投辦公區)', 'Company_Setup_Date': '0920620', 'Change_Of_Approval_Data': '1140115', 'Revoke_App_Date': '', 'Case_Status': '3', 'Case_Status_Desc': '復業', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80422988'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>展騏科技有限公司</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>80440888</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>復業副本</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>蔡漢儀</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80440888</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>{'Business_Accounting_NO': '80440888', 'Company_Status_Desc': '核准設立', 'Company_Name': '展騏科技有限公司', 'Capital_Stock_Amount': 5000000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '蔡漢儀', 'Company_Location': '屏東縣長治鄉德和村德和路25之1號1樓之1', 'Register_Organization_Desc': '經濟部中部辦公室', 'Company_Setup_Date': '0920715', 'Change_Of_Approval_Data': '1070330', 'Revoke_App_Date': '       ', 'Case_Status': '3', 'Case_Status_Desc': '復業副本', 'Sus_App_Date': '1070413', 'Sus_Beg_Date': '       ', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80440888'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>立韋實業有限公司</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>80454989</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>復業</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>黃銘偉</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80454989</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>{'Business_Accounting_NO': '80454989', 'Company_Status_Desc': '核准設立', 'Company_Name': '立韋實業有限公司', 'Capital_Stock_Amount': 1000000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '黃銘偉', 'Company_Location': '臺中市龍井區福田里3鄰茄投路福頭崙巷13號1樓', 'Register_Organization_Desc': '臺中市政府', 'Company_Setup_Date': '0920804', 'Change_Of_Approval_Data': '1040918', 'Revoke_App_Date': '', 'Case_Status': '3', 'Case_Status_Desc': '復業', 'Sus_App_Date': '1110831', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80454989'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>勵仁國際有限公司</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>80467366</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>停業</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>孫立人</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80467366</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>{'Business_Accounting_NO': '80467366', 'Company_Status_Desc': '核准設立', 'Company_Name': '勵仁國際有限公司', 'Capital_Stock_Amount': 1000000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '孫立人', 'Company_Location': '臺北市大安區辛亥路3段157巷22弄6號2樓', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0920820', 'Change_Of_Approval_Data': '1021025', 'Revoke_App_Date': '', 'Case_Status': '1', 'Case_Status_Desc': '停業', 'Sus_App_Date': '', 'Sus_Beg_Date': '1140516', 'Sus_End_Date': '1150515', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80467366'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>盛鐵精密股份有限公司</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>80469358</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>16000000</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>復業副本</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>黃奇郎</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80469358</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>{'Business_Accounting_NO': '80469358', 'Company_Status_Desc': '核准設立', 'Company_Name': '盛鐵精密股份有限公司', 'Capital_Stock_Amount': 16000000, 'Paid_In_Capital_Amount': 16000000, 'Responsible_Name': '黃奇郎', 'Company_Location': '彰化縣鹿港鎮東石里環工六路33號', 'Register_Organization_Desc': '經濟部中部辦公室', 'Company_Setup_Date': '0920822', 'Change_Of_Approval_Data': '1091123', 'Revoke_App_Date': '', 'Case_Status': '3', 'Case_Status_Desc': '復業副本', 'Sus_App_Date': '1100226', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80469358'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>全方位開發有限公司</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>80477287</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>復業</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>無資料</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80477287</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>{'Business_Accounting_NO': '80477287', 'Company_Status_Desc': '解散', 'Company_Name': '全方位開發有限公司', 'Capital_Stock_Amount': 5000000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '', 'Company_Location': '新北市汐止區忠孝東路437號2樓', 'Register_Organization_Desc': '新北市政府', 'Company_Setup_Date': '0920903', 'Change_Of_Approval_Data': '1090205', 'Revoke_App_Date': '1130403', 'Case_Status': '3', 'Case_Status_Desc': '復業', 'Sus_App_Date': '1040605', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80477287'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>小魚兒國際行銷股份有限公司</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>80485293</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>復業</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>林靜霖</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80485293</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>{'Business_Accounting_NO': '80485293', 'Company_Status_Desc': '核准設立', 'Company_Name': '小魚兒國際行銷股份有限公司', 'Capital_Stock_Amount': 8000000, 'Paid_In_Capital_Amount': 8000000, 'Responsible_Name': '林靜霖', 'Company_Location': '彰化縣北斗鎮文昌里中興街227號1樓', 'Register_Organization_Desc': '商業發展署(南投辦公區)', 'Company_Setup_Date': '0920917', 'Change_Of_Approval_Data': '1131028', 'Revoke_App_Date': '', 'Case_Status': '3', 'Case_Status_Desc': '復業', 'Sus_App_Date': '1090410', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80485293'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>上洺工程有限公司</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>80500105</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>復業</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>王江立</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80500105</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>{'Business_Accounting_NO': '80500105', 'Company_Status_Desc': '核准設立', 'Company_Name': '上洺工程有限公司', 'Capital_Stock_Amount': 12000000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '王江立', 'Company_Location': '高雄市前鎮區一心二路128號7樓之1', 'Register_Organization_Desc': '高雄市政府經濟發展局', 'Company_Setup_Date': '0920723', 'Change_Of_Approval_Data': '1140224', 'Revoke_App_Date': '', 'Case_Status': '3', 'Case_Status_Desc': '復業', 'Sus_App_Date': '1090928', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80500105'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>富凡妮有限公司</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>80504427</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>復業</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>陳宜青</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80504427</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>{'Business_Accounting_NO': '80504427', 'Company_Status_Desc': '核准設立', 'Company_Name': '富凡妮有限公司', 'Capital_Stock_Amount': 20000000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '陳宜青', 'Company_Location': '新北市淡水區中正東路2段27號8樓', 'Register_Organization_Desc': '新北市政府', 'Company_Setup_Date': '0920804', 'Change_Of_Approval_Data': '1130229', 'Revoke_App_Date': '', 'Case_Status': '3', 'Case_Status_Desc': '復業', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80504427'}</t>
         </is>
       </c>
     </row>

--- a/範本/查詢完成.xlsx
+++ b/範本/查詢完成.xlsx
@@ -501,7 +501,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -549,7 +549,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -587,7 +587,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>查無資料</t>
+          <t>尚未查詢</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -633,7 +633,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -681,7 +681,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -729,7 +729,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -777,7 +777,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>查無資料</t>
+          <t>尚未查詢</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -825,7 +825,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>查無資料</t>
+          <t>尚未查詢</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -873,7 +873,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>查無資料</t>
+          <t>尚未查詢</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -917,7 +917,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>查無資料</t>
+          <t>尚未查詢</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -965,7 +965,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>查無資料</t>
+          <t>尚未查詢</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1013,7 +1013,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>查無資料</t>
+          <t>尚未查詢</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1205,7 +1205,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1253,7 +1253,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>查無資料</t>
+          <t>尚未查詢</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1301,7 +1301,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>查無資料</t>
+          <t>遷他縣市</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1349,7 +1349,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>查無資料</t>
+          <t>核准設立</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1397,7 +1397,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1445,7 +1445,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1493,7 +1493,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>查無資料</t>
+          <t>尚未查詢</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1541,7 +1541,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>查無資料</t>
+          <t>核准設立</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1589,7 +1589,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>查無資料</t>
+          <t>尚未查詢</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1637,7 +1637,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>查無資料</t>
+          <t>尚未查詢</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1685,7 +1685,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>查無資料</t>
+          <t>尚未查詢</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1733,7 +1733,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>查無資料</t>
+          <t>尚未查詢</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1781,7 +1781,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>查無資料</t>
+          <t>尚未查詢</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1829,7 +1829,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1925,7 +1925,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1973,7 +1973,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2021,7 +2021,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2069,7 +2069,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2117,7 +2117,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2165,7 +2165,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>查無資料</t>
+          <t>尚未查詢</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2213,7 +2213,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>查無資料</t>
+          <t>尚未查詢</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -2261,7 +2261,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>查無資料</t>
+          <t>尚未查詢</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -2309,7 +2309,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>查無資料</t>
+          <t>尚未查詢</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2357,7 +2357,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>查無資料</t>
+          <t>尚未查詢</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2499,7 +2499,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>查無資料</t>
+          <t>尚未查詢</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2547,7 +2547,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>查無資料</t>
+          <t>尚未查詢</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -2595,7 +2595,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>查無資料</t>
+          <t>尚未查詢</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -2641,7 +2641,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>查無資料</t>
+          <t>尚未查詢</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2687,7 +2687,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>查無資料</t>
+          <t>核准設立</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2735,7 +2735,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>查無資料</t>
+          <t>尚未查詢</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2783,7 +2783,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -2831,7 +2831,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -2879,7 +2879,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2975,7 +2975,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -3023,7 +3023,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -3071,7 +3071,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -3119,7 +3119,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>查無資料</t>
+          <t>尚未查詢</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -3167,7 +3167,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -3215,7 +3215,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -3263,7 +3263,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -3359,7 +3359,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -3455,7 +3455,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -3503,7 +3503,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -3551,7 +3551,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>查無資料</t>
+          <t>尚未查詢</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -3599,7 +3599,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -3643,7 +3643,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -3691,7 +3691,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -3739,7 +3739,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -3787,7 +3787,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -3883,7 +3883,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -3931,7 +3931,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -3979,7 +3979,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -4027,7 +4027,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -4171,7 +4171,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -4219,7 +4219,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -4363,7 +4363,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -4411,7 +4411,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -4459,7 +4459,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -4507,7 +4507,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -4603,7 +4603,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -4651,7 +4651,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -5035,7 +5035,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -5083,7 +5083,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>查無結果</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -5675,7 +5675,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5719,11 +5719,6 @@
           <t>網址</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>詳細資料</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -5759,11 +5754,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=00011306</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '00011306', 'Company_Status_Desc': '核准設立', 'Company_Name': '瑪朱有限公司', 'Capital_Stock_Amount': 550000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': 'MARVIN ALEXANDER WIMMERS', 'Company_Location': '臺北市中正區忠孝東路1段152號12樓之6', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '1130827', 'Change_Of_Approval_Data': '', 'Revoke_App_Date': '', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=00011306'}</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5799,11 +5789,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=00029376</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '00029376', 'Company_Status_Desc': '核准設立', 'Company_Name': '簡單資訊有限公司', 'Capital_Stock_Amount': 50000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '呂承紘', 'Company_Location': '基隆市安樂區七賢里安和一街二巷18-1號二樓', 'Register_Organization_Desc': '商業發展署(實收資本額未達5億元)', 'Company_Setup_Date': '1130808', 'Change_Of_Approval_Data': '', 'Revoke_App_Date': '', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=00029376'}</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -5839,11 +5824,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=00653780</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '00653780', 'Company_Status_Desc': '核准設立', 'Company_Name': '大隆冷凍食品股份有限公司', 'Capital_Stock_Amount': 25000000, 'Paid_In_Capital_Amount': 25000000, 'Responsible_Name': '張學崇', 'Company_Location': '基隆市中正區調和街118號', 'Register_Organization_Desc': '經濟部中部辦公室', 'Company_Setup_Date': '0610506', 'Change_Of_Approval_Data': '0961009', 'Revoke_App_Date': '       ', 'Case_Status': None, 'Case_Status_Desc': None, 'Sus_App_Date': '       ', 'Sus_Beg_Date': '       ', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=00653780'}</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5879,11 +5859,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=00659102</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '00659102', 'Company_Status_Desc': '核准設立', 'Company_Name': '海灣兄弟股份有限公司', 'Capital_Stock_Amount': 4500000, 'Paid_In_Capital_Amount': 4500000, 'Responsible_Name': '李黃錦雲', 'Company_Location': '基隆市中正區港通里義一路208之5號', 'Register_Organization_Desc': '經濟部中部辦公室', 'Company_Setup_Date': '0630216', 'Change_Of_Approval_Data': '1100817', 'Revoke_App_Date': '', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=00659102'}</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5919,11 +5894,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=00701122</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '00701122', 'Company_Status_Desc': '核准設立', 'Company_Name': '臺聯貨櫃通運股份有限公司', 'Capital_Stock_Amount': 840000000, 'Paid_In_Capital_Amount': 648000000, 'Responsible_Name': '簡東\uf0a9', 'Company_Location': '基隆市七堵區堵南里8鄰三合街2號', 'Register_Organization_Desc': '經濟部商業司', 'Company_Setup_Date': '0620716', 'Change_Of_Approval_Data': '1120426', 'Revoke_App_Date': '', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=00701122'}</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5959,11 +5929,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=01184168</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '01184168', 'Company_Status_Desc': '核准設立', 'Company_Name': '茂聯興業股份有限公司', 'Capital_Stock_Amount': 20000000, 'Paid_In_Capital_Amount': 20000000, 'Responsible_Name': '張國強', 'Company_Location': '臺北市中山區復興北路60號11樓之2', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0741003', 'Change_Of_Approval_Data': '0990712', 'Revoke_App_Date': '', 'Case_Status': '1', 'Case_Status_Desc': '停業副本', 'Sus_App_Date': '1130628', 'Sus_Beg_Date': '1130630', 'Sus_End_Date': '1140629', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=01184168'}</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5999,11 +5964,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=01186671</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '01186671', 'Company_Status_Desc': '核准設立', 'Company_Name': '阜德國際股份有限公司', 'Capital_Stock_Amount': 20000000, 'Paid_In_Capital_Amount': 20000000, 'Responsible_Name': '葉季展', 'Company_Location': '彰化縣員林市中山里中山路一段七三四號', 'Register_Organization_Desc': '商業發展署(南投辦公區)', 'Company_Setup_Date': '0741018', 'Change_Of_Approval_Data': '0890715', 'Revoke_App_Date': '', 'Case_Status': '1', 'Case_Status_Desc': '停業', 'Sus_App_Date': '', 'Sus_Beg_Date': '1140521', 'Sus_End_Date': '1150520', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=01186671'}</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6039,11 +5999,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=01190078</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '01190078', 'Company_Status_Desc': '核准設立', 'Company_Name': '旺美企業有限公司', 'Capital_Stock_Amount': 5000000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '周金台', 'Company_Location': '臺北市中山區松江路100巷13號︹之1︺1樓', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0741120', 'Change_Of_Approval_Data': '0790501', 'Revoke_App_Date': '', 'Case_Status': '1', 'Case_Status_Desc': '停業副本', 'Sus_App_Date': '1140422', 'Sus_Beg_Date': '1140423', 'Sus_End_Date': '1150422', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=01190078'}</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6079,11 +6034,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=01356801</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '01356801', 'Company_Status_Desc': '核准設立', 'Company_Name': '三恆開發有限公司', 'Capital_Stock_Amount': 6000000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '郭恒章', 'Company_Location': '臺北市大同區承德路2段59號6樓', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0721213', 'Change_Of_Approval_Data': '1120517', 'Revoke_App_Date': '', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=01356801'}</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6119,11 +6069,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=01507441</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '01507441', 'Company_Status_Desc': '核准設立', 'Company_Name': '三華行有限公司', 'Capital_Stock_Amount': 22000000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '黃丁士', 'Company_Location': '臺北市松山區八德路3段12巷70弄19號1樓', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0740810', 'Change_Of_Approval_Data': '1051124', 'Revoke_App_Date': '       ', 'Case_Status': None, 'Case_Status_Desc': None, 'Sus_App_Date': '       ', 'Sus_Beg_Date': '       ', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=01507441'}</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6159,11 +6104,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=01516589</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '01516589', 'Company_Status_Desc': '核准設立', 'Company_Name': '台灣諾華股份有限公司', 'Capital_Stock_Amount': 170000000, 'Paid_In_Capital_Amount': 170000000, 'Responsible_Name': 'Stefan Thommen(斯特凡‧湯門)', 'Company_Location': '臺北市中山區民生東路3段2號8樓', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0750317', 'Change_Of_Approval_Data': '1140122', 'Revoke_App_Date': '', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=01516589'}</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6199,11 +6139,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=01805976</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '01805976', 'Company_Status_Desc': '核准設立', 'Company_Name': '春怡服飾有限公司', 'Capital_Stock_Amount': 5000000, 'Paid_In_Capital_Amount': None, 'Responsible_Name': '李淑貞', 'Company_Location': '臺北市士林區克強路12號1樓', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0740802', 'Change_Of_Approval_Data': '1050328', 'Revoke_App_Date': '       ', 'Case_Status': None, 'Case_Status_Desc': None, 'Sus_App_Date': '       ', 'Sus_Beg_Date': '       ', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=01805976'}</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6239,11 +6174,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=01810491</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '01810491', 'Company_Status_Desc': '核准設立', 'Company_Name': '郁瑋企業有限公司', 'Capital_Stock_Amount': 10000000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '陳麗涓', 'Company_Location': '新北市蘆洲區三民路85巷45號8樓', 'Register_Organization_Desc': '新北市政府', 'Company_Setup_Date': '0741008', 'Change_Of_Approval_Data': '0941229', 'Revoke_App_Date': '', 'Case_Status': '1', 'Case_Status_Desc': '停業', 'Sus_App_Date': '', 'Sus_Beg_Date': '1131129', 'Sus_End_Date': '1141128', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=01810491'}</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6279,11 +6209,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=01813526</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '01813526', 'Company_Status_Desc': '核准設立', 'Company_Name': '歐萌國際有限公司', 'Capital_Stock_Amount': 10000000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '黃克剛', 'Company_Location': '臺北市士林區中正路120之1號5樓', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0741122', 'Change_Of_Approval_Data': '1081120', 'Revoke_App_Date': '', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=01813526'}</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6319,11 +6244,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=01813737</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '01813737', 'Company_Status_Desc': '核准設立', 'Company_Name': '盛鐿企業有限公司', 'Capital_Stock_Amount': 5000000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '龔偉名', 'Company_Location': '新北市三重區仁義街220巷7號1樓', 'Register_Organization_Desc': '新北市政府', 'Company_Setup_Date': '0741128', 'Change_Of_Approval_Data': '1070403', 'Revoke_App_Date': '       ', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '       ', 'Sus_Beg_Date': '       ', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=01813737'}</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6359,11 +6279,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=01885555</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '01885555', 'Company_Status_Desc': '核准設立', 'Company_Name': '多角陶瓷股份有限公司', 'Capital_Stock_Amount': 1200000, 'Paid_In_Capital_Amount': 1200000, 'Responsible_Name': '李震宇', 'Company_Location': '新北市三峽區添福14之20號', 'Register_Organization_Desc': '新北市政府', 'Company_Setup_Date': '0740909', 'Change_Of_Approval_Data': '1011121', 'Revoke_App_Date': '       ', 'Case_Status': None, 'Case_Status_Desc': None, 'Sus_App_Date': '       ', 'Sus_Beg_Date': '       ', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=01885555'}</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6399,11 +6314,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=01976773</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '01976773', 'Company_Status_Desc': '核准設立', 'Company_Name': '上繽精密工業股份有限公司', 'Capital_Stock_Amount': 17000000, 'Paid_In_Capital_Amount': 17000000, 'Responsible_Name': '倪澄霖', 'Company_Location': '新北市樹林區保安街2段347號', 'Register_Organization_Desc': '新北市政府', 'Company_Setup_Date': '0740604', 'Change_Of_Approval_Data': '1081106', 'Revoke_App_Date': '', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=01976773'}</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6439,11 +6349,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=02082457</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '02082457', 'Company_Status_Desc': '核准設立', 'Company_Name': '明營機械廠股份有限公司', 'Capital_Stock_Amount': 7000000, 'Paid_In_Capital_Amount': 7000000, 'Responsible_Name': '黃枝明', 'Company_Location': '新北市五股區中興路1段151巷41號', 'Register_Organization_Desc': '新北市政府', 'Company_Setup_Date': '0740824', 'Change_Of_Approval_Data': '1120526', 'Revoke_App_Date': '', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=02082457'}</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6479,11 +6384,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=02352043</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '02352043', 'Company_Status_Desc': '核准設立', 'Company_Name': '今古典企業股份有限公司', 'Capital_Stock_Amount': 29000000, 'Paid_In_Capital_Amount': 29000000, 'Responsible_Name': '劉永寬', 'Company_Location': '臺北市文山區木柵路1段38號3樓', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0740823', 'Change_Of_Approval_Data': '0991104', 'Revoke_App_Date': '', 'Case_Status': '1', 'Case_Status_Desc': '停業副本', 'Sus_App_Date': '1130613', 'Sus_Beg_Date': '1130617', 'Sus_End_Date': '1140616', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=02352043'}</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6519,11 +6419,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=02352043</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '02352043', 'Company_Status_Desc': '核准設立', 'Company_Name': '今古典企業股份有限公司', 'Capital_Stock_Amount': 29000000, 'Paid_In_Capital_Amount': 29000000, 'Responsible_Name': '劉永寬', 'Company_Location': '臺北市文山區木柵路1段38號3樓', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0740823', 'Change_Of_Approval_Data': '0991104', 'Revoke_App_Date': '', 'Case_Status': '1', 'Case_Status_Desc': '停業副本', 'Sus_App_Date': '1130613', 'Sus_Beg_Date': '1130617', 'Sus_End_Date': '1140616', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=02352043'}</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6559,11 +6454,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=02999866</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '02999866', 'Company_Status_Desc': '核准設立', 'Company_Name': '科威股份有限公司', 'Capital_Stock_Amount': 6660000, 'Paid_In_Capital_Amount': 6660000, 'Responsible_Name': '馬家驊', 'Company_Location': '臺中市北區賴村里尚德街119之2號2樓', 'Register_Organization_Desc': '臺中市政府', 'Company_Setup_Date': '0740902', 'Change_Of_Approval_Data': '1050711', 'Revoke_App_Date': '', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=02999866'}</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6599,11 +6489,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03017700</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '03017700', 'Company_Status_Desc': '核准設立', 'Company_Name': '大江產業股份有限公司', 'Capital_Stock_Amount': 5000000, 'Paid_In_Capital_Amount': 5000000, 'Responsible_Name': '盧杰輝', 'Company_Location': '高雄市前金區大同二路143號7樓之6', 'Register_Organization_Desc': '高雄市政府經濟發展局', 'Company_Setup_Date': '0550127', 'Change_Of_Approval_Data': '1121024', 'Revoke_App_Date': '', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03017700'}</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6639,11 +6524,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03035209</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '03035209', 'Company_Status_Desc': '核准設立', 'Company_Name': '上海聯合藥房股份有限公司', 'Capital_Stock_Amount': 15000000, 'Paid_In_Capital_Amount': 15000000, 'Responsible_Name': '李照雄', 'Company_Location': '臺北市中正區衡陽路32號', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0390526', 'Change_Of_Approval_Data': '1021029', 'Revoke_App_Date': '       ', 'Case_Status': None, 'Case_Status_Desc': None, 'Sus_App_Date': '       ', 'Sus_Beg_Date': '       ', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03035209'}</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6679,11 +6559,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03058011</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '03058011', 'Company_Status_Desc': '核准設立', 'Company_Name': '文化圖書股份有限公司', 'Capital_Stock_Amount': 5000000, 'Paid_In_Capital_Amount': 5000000, 'Responsible_Name': '徐正', 'Company_Location': '臺北市中正區武昌街1段16巷25號1樓', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0580131', 'Change_Of_Approval_Data': '1021230', 'Revoke_App_Date': '', 'Case_Status': '1', 'Case_Status_Desc': '停業副本', 'Sus_App_Date': '1140106', 'Sus_Beg_Date': '1140101', 'Sus_End_Date': '1141231', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03058011'}</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6719,11 +6594,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03101946</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '03101946', 'Company_Status_Desc': '核准設立', 'Company_Name': '中福國際股份有限公司', 'Capital_Stock_Amount': 2000000000, 'Paid_In_Capital_Amount': 1397800800, 'Responsible_Name': '陳建', 'Company_Location': '新北市中和區廟美里景平路666號2樓', 'Register_Organization_Desc': '商業發展署', 'Company_Setup_Date': '0600115', 'Change_Of_Approval_Data': '1140206', 'Revoke_App_Date': '', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03101946'}</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6759,11 +6629,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03101946</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '03101946', 'Company_Status_Desc': '核准設立', 'Company_Name': '中福國際股份有限公司', 'Capital_Stock_Amount': 2000000000, 'Paid_In_Capital_Amount': 1397800800, 'Responsible_Name': '陳建', 'Company_Location': '新北市中和區廟美里景平路666號2樓', 'Register_Organization_Desc': '商業發展署', 'Company_Setup_Date': '0600115', 'Change_Of_Approval_Data': '1140206', 'Revoke_App_Date': '', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03101946'}</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6799,11 +6664,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03105318</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '03105318', 'Company_Status_Desc': '解散', 'Company_Name': '巴黎銀樓有限公司', 'Capital_Stock_Amount': 5000000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '', 'Company_Location': '臺北市大安區敦化南路1段194號', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0581017', 'Change_Of_Approval_Data': '0930401', 'Revoke_App_Date': '1140425', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03105318'}</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6839,11 +6699,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03142910</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '03142910', 'Company_Status_Desc': '核准設立', 'Company_Name': '永毅實業股份有限公司', 'Capital_Stock_Amount': 8000000, 'Paid_In_Capital_Amount': 8000000, 'Responsible_Name': '蔣序龍', 'Company_Location': '臺北市信義區忠孝東路5段1之7號9樓', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0580918', 'Change_Of_Approval_Data': '1121227', 'Revoke_App_Date': '', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03142910'}</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6879,11 +6734,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03159833</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '03159833', 'Company_Status_Desc': '核准設立', 'Company_Name': '全中興業有限公司', 'Capital_Stock_Amount': 12000000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '王敦生', 'Company_Location': '臺北市中正區杭州南路1段6巷26號1樓', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0601123', 'Change_Of_Approval_Data': '1060616', 'Revoke_App_Date': '       ', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '       ', 'Sus_Beg_Date': '       ', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03159833'}</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6919,11 +6769,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03173103</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '03173103', 'Company_Status_Desc': '核准設立', 'Company_Name': '昶茂企業有限公司', 'Capital_Stock_Amount': 5000000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '李智敏', 'Company_Location': '臺北市中正區重慶南路1段10號9樓之6', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0560311', 'Change_Of_Approval_Data': '1100413', 'Revoke_App_Date': '', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03173103'}</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6959,11 +6804,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03188605</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '03188605', 'Company_Status_Desc': '廢止', 'Company_Name': '同德懋股份有限公司', 'Capital_Stock_Amount': 48000000, 'Paid_In_Capital_Amount': 48000000, 'Responsible_Name': '', 'Company_Location': '臺北市大安區忠孝東路4段216巷32弄18號3樓', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0540302', 'Change_Of_Approval_Data': '1010424', 'Revoke_App_Date': '1140212', 'Case_Status': '1', 'Case_Status_Desc': '停業副本', 'Sus_App_Date': '1120119', 'Sus_Beg_Date': '1120123', 'Sus_End_Date': '1130122', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03188605'}</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6999,11 +6839,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03253653</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '03253653', 'Company_Status_Desc': '核准設立', 'Company_Name': '東武有限公司', 'Capital_Stock_Amount': 4000000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '潘佳吟', 'Company_Location': '臺北市內湖區瑞光路76巷47號6樓', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0600915', 'Change_Of_Approval_Data': '1100112', 'Revoke_App_Date': '', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03253653'}</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7039,11 +6874,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03338506</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '03338506', 'Company_Status_Desc': '核准設立', 'Company_Name': '振宏茶業股份有限公司', 'Capital_Stock_Amount': 5000000, 'Paid_In_Capital_Amount': 5000000, 'Responsible_Name': '葉國璋', 'Company_Location': '臺北市大同區重慶北路1段87之1號5樓', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0541101', 'Change_Of_Approval_Data': '1131101', 'Revoke_App_Date': '', 'Case_Status': '3', 'Case_Status_Desc': '復業', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03338506'}</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7079,11 +6909,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03379506</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '03379506', 'Company_Status_Desc': '核准設立', 'Company_Name': '國華貿易股份有限公司', 'Capital_Stock_Amount': 100000000, 'Paid_In_Capital_Amount': 60000000, 'Responsible_Name': '許育彰', 'Company_Location': '臺北市中正區新生南路1段116號4樓', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0470131', 'Change_Of_Approval_Data': '1120801', 'Revoke_App_Date': '', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03379506'}</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7119,11 +6944,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03430412</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '03430412', 'Company_Status_Desc': '核准設立', 'Company_Name': '年欣股份有限公司', 'Capital_Stock_Amount': 15000000, 'Paid_In_Capital_Amount': 15000000, 'Responsible_Name': '張苡瑈', 'Company_Location': '新北市中和區景平路71之3號2樓', 'Register_Organization_Desc': '新北市政府', 'Company_Setup_Date': '0580416', 'Change_Of_Approval_Data': '1140506', 'Revoke_App_Date': '', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03430412'}</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7159,11 +6979,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03506003</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '03506003', 'Company_Status_Desc': '核准設立', 'Company_Name': '福大化學工業股份有限公司', 'Capital_Stock_Amount': 53000000, 'Paid_In_Capital_Amount': 53000000, 'Responsible_Name': '許衍熙', 'Company_Location': '臺北市中正區延平南路74號1樓', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0541019', 'Change_Of_Approval_Data': '1130408', 'Revoke_App_Date': '', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03506003'}</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7199,11 +7014,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03522003</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '03522003', 'Company_Status_Desc': '核准設立', 'Company_Name': '遠東航空股份有限公司', 'Capital_Stock_Amount': 8000000000, 'Paid_In_Capital_Amount': 3324000000, 'Responsible_Name': '謝良駿', 'Company_Location': '臺北市中正區羅斯福路4段68號12樓之16', 'Register_Organization_Desc': '商業發展署(實收資本額5億元以上)', 'Company_Setup_Date': '0481009', 'Change_Of_Approval_Data': '1130327', 'Revoke_App_Date': '', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03522003'}</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7239,11 +7049,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03527226</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '03527226', 'Company_Status_Desc': '核准設立', 'Company_Name': '誠益實業有限公司', 'Capital_Stock_Amount': 6000000, 'Paid_In_Capital_Amount': None, 'Responsible_Name': '羅元宏', 'Company_Location': '臺北市信義區基隆路2段22號(1樓)', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0610310', 'Change_Of_Approval_Data': '0990712', 'Revoke_App_Date': '       ', 'Case_Status': None, 'Case_Status_Desc': None, 'Sus_App_Date': '       ', 'Sus_Beg_Date': '       ', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03527226'}</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7279,11 +7084,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03527400</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '03527400', 'Company_Status_Desc': '解散已清算完結', 'Company_Name': '福星電器貿易股份有限公司', 'Capital_Stock_Amount': 0, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '', 'Company_Location': '新北市板橋區', 'Register_Organization_Desc': '新北市政府', 'Company_Setup_Date': '0511207', 'Change_Of_Approval_Data': '', 'Revoke_App_Date': '1120811', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03527400'}</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7319,11 +7119,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03564100</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '03564100', 'Company_Status_Desc': '核准設立', 'Company_Name': '國正實業股份有限公司', 'Capital_Stock_Amount': 46000000, 'Paid_In_Capital_Amount': 46000000, 'Responsible_Name': '何宗嶽', 'Company_Location': '臺北市中山區林森北路646號', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0551208', 'Change_Of_Approval_Data': '1101207', 'Revoke_App_Date': '', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03564100'}</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7359,11 +7154,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03610006</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '03610006', 'Company_Status_Desc': '核准設立', 'Company_Name': '豐記股份有限公司', 'Capital_Stock_Amount': 50000000, 'Paid_In_Capital_Amount': 20000000, 'Responsible_Name': '', 'Company_Location': '臺北市中正區襄陽路39號4樓', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0500718', 'Change_Of_Approval_Data': '1140106', 'Revoke_App_Date': '', 'Case_Status': '1', 'Case_Status_Desc': '停業副本', 'Sus_App_Date': '1140109', 'Sus_Beg_Date': '1140101', 'Sus_End_Date': '1141231', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03610006'}</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7399,11 +7189,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03613334</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '03613334', 'Company_Status_Desc': '核准設立', 'Company_Name': '羅蘭國際有限公司', 'Capital_Stock_Amount': 5000000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '張泉雄', 'Company_Location': '桃園市中壢區內厝里聖德路一段201巷52號', 'Register_Organization_Desc': '桃園市政府', 'Company_Setup_Date': '0600204', 'Change_Of_Approval_Data': '1120614', 'Revoke_App_Date': '', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03613334'}</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7439,11 +7224,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03628006</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '03628006', 'Company_Status_Desc': '核准設立', 'Company_Name': '建成銲條股份有限公司', 'Capital_Stock_Amount': 20000000, 'Paid_In_Capital_Amount': 20000000, 'Responsible_Name': '陳鼎翰', 'Company_Location': '臺北市中正區開封街1段105之2號', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0540608', 'Change_Of_Approval_Data': '1120322', 'Revoke_App_Date': '', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03628006'}</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7479,11 +7259,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03634605</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '03634605', 'Company_Status_Desc': '核准設立', 'Company_Name': '劍門企業股份有限公司', 'Capital_Stock_Amount': 5000000, 'Paid_In_Capital_Amount': 5000000, 'Responsible_Name': '喬莊', 'Company_Location': '臺北市信義區虎林街239號', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0540713', 'Change_Of_Approval_Data': '1120424', 'Revoke_App_Date': '', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03634605'}</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7519,11 +7294,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03795904</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '03795904', 'Company_Status_Desc': '核准設立', 'Company_Name': '台灣電力股份有限公司', 'Capital_Stock_Amount': 600000000000, 'Paid_In_Capital_Amount': 580000000000, 'Responsible_Name': '曾文生', 'Company_Location': '臺北市中正區羅斯福路三段242號', 'Register_Organization_Desc': '商業發展署', 'Company_Setup_Date': '0391214', 'Change_Of_Approval_Data': '1140513', 'Revoke_App_Date': '', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=03795904'}</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7559,11 +7329,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04204998</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '04204998', 'Company_Status_Desc': '解散', 'Company_Name': '獨一光學有限公司', 'Capital_Stock_Amount': 1500000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '', 'Company_Location': '臺北市中山區中山北路2段59號之1', 'Register_Organization_Desc': '台北市政府商業管理處', 'Company_Setup_Date': '0620502', 'Change_Of_Approval_Data': '1130807', 'Revoke_App_Date': '1130923', 'Case_Status': '1', 'Case_Status_Desc': '停業副本', 'Sus_App_Date': '1121227', 'Sus_Beg_Date': '1130101', 'Sus_End_Date': '1131231', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04204998'}</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7599,11 +7364,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04229604</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '04229604', 'Company_Status_Desc': '核准設立', 'Company_Name': '仕瑋企業有限公司', 'Capital_Stock_Amount': 5000000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '邱仕卿', 'Company_Location': '臺北市內湖區瑞光路258巷2號3樓之1', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0630905', 'Change_Of_Approval_Data': '1050729', 'Revoke_App_Date': '', 'Case_Status': '1', 'Case_Status_Desc': '停業', 'Sus_App_Date': '', 'Sus_Beg_Date': '1140412', 'Sus_End_Date': '1150411', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04229604'}</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7639,11 +7399,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04233311</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '04233311', 'Company_Status_Desc': '核准設立', 'Company_Name': '位達股份有限公司', 'Capital_Stock_Amount': 18000000, 'Paid_In_Capital_Amount': 18000000, 'Responsible_Name': '林陳滿麗', 'Company_Location': '新北市樹林區中山路2段151巷16號', 'Register_Organization_Desc': '新北市政府', 'Company_Setup_Date': '0631114', 'Change_Of_Approval_Data': '1120720', 'Revoke_App_Date': '', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04233311'}</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7679,11 +7434,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04239482</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '04239482', 'Company_Status_Desc': '核准設立', 'Company_Name': '萬載企業股份有限公司', 'Capital_Stock_Amount': 5000000, 'Paid_In_Capital_Amount': 5000000, 'Responsible_Name': '陳辰金', 'Company_Location': '臺北市松山區南京東路4段100號7樓', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0640131', 'Change_Of_Approval_Data': '1100907', 'Revoke_App_Date': '', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04239482'}</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7719,11 +7469,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04245631</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '04245631', 'Company_Status_Desc': '核准設立', 'Company_Name': '至亨企業有限公司', 'Capital_Stock_Amount': 15000000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '江明順', 'Company_Location': '臺北市大同區承德路1段35號8樓之1', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0640618', 'Change_Of_Approval_Data': '1120410', 'Revoke_App_Date': '', 'Case_Status': '1', 'Case_Status_Desc': '停業', 'Sus_App_Date': '', 'Sus_Beg_Date': '1131215', 'Sus_End_Date': '1141214', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04245631'}</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7759,11 +7504,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04245631</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '04245631', 'Company_Status_Desc': '核准設立', 'Company_Name': '至亨企業有限公司', 'Capital_Stock_Amount': 15000000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '江明順', 'Company_Location': '臺北市大同區承德路1段35號8樓之1', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0640618', 'Change_Of_Approval_Data': '1120410', 'Revoke_App_Date': '', 'Case_Status': '1', 'Case_Status_Desc': '停業', 'Sus_App_Date': '', 'Sus_Beg_Date': '1131215', 'Sus_End_Date': '1141214', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04245631'}</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7799,11 +7539,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04249518</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '04249518', 'Company_Status_Desc': '核准設立', 'Company_Name': '捷全企業股份有限公司', 'Capital_Stock_Amount': 25000000, 'Paid_In_Capital_Amount': 25000000, 'Responsible_Name': '江秉勲', 'Company_Location': '新北市新店區寶橋路235巷6弄2號9樓', 'Register_Organization_Desc': '新北市政府', 'Company_Setup_Date': '0640730', 'Change_Of_Approval_Data': '1110106', 'Revoke_App_Date': '', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04249518'}</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7839,11 +7574,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04268726</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '04268726', 'Company_Status_Desc': '核准設立', 'Company_Name': '晶華國際酒店股份有限公司', 'Capital_Stock_Amount': 5000000000, 'Paid_In_Capital_Amount': 1274032380, 'Responsible_Name': '潘思亮', 'Company_Location': '臺北市中山區中山北路2段39巷3號1至20樓', 'Register_Organization_Desc': '商業發展署(實收資本額5億元以上)', 'Company_Setup_Date': '0650707', 'Change_Of_Approval_Data': '1130701', 'Revoke_App_Date': '', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04268726'}</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7879,11 +7609,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04268726</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '04268726', 'Company_Status_Desc': '核准設立', 'Company_Name': '晶華國際酒店股份有限公司', 'Capital_Stock_Amount': 5000000000, 'Paid_In_Capital_Amount': 1274032380, 'Responsible_Name': '潘思亮', 'Company_Location': '臺北市中山區中山北路2段39巷3號1至20樓', 'Register_Organization_Desc': '商業發展署(實收資本額5億元以上)', 'Company_Setup_Date': '0650707', 'Change_Of_Approval_Data': '1130701', 'Revoke_App_Date': '', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04268726'}</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7919,11 +7644,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04271200</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '04271200', 'Company_Status_Desc': '核准設立', 'Company_Name': '臺北運輸倉儲股份有限公司', 'Capital_Stock_Amount': 72000000, 'Paid_In_Capital_Amount': 72000000, 'Responsible_Name': '蘇怡慧', 'Company_Location': '臺北市中正區紹興北街35號2樓之1', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0461118', 'Change_Of_Approval_Data': '0980923', 'Revoke_App_Date': '       ', 'Case_Status': None, 'Case_Status_Desc': None, 'Sus_App_Date': '       ', 'Sus_Beg_Date': '       ', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04271200'}</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7959,11 +7679,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04271813</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '04271813', 'Company_Status_Desc': '核准設立', 'Company_Name': '巧雅企業有限公司', 'Capital_Stock_Amount': 5000000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '陳大川', 'Company_Location': '臺北市萬華區峨嵋街125巷20號4樓', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0650819', 'Change_Of_Approval_Data': '1021120', 'Revoke_App_Date': '', 'Case_Status': '1', 'Case_Status_Desc': '停業副本', 'Sus_App_Date': '1140423', 'Sus_Beg_Date': '1140423', 'Sus_End_Date': '1150422', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04271813'}</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7999,11 +7714,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04274804</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '04274804', 'Company_Status_Desc': '核准設立', 'Company_Name': '兄弟大飯店股份有限公司', 'Capital_Stock_Amount': 150000000, 'Paid_In_Capital_Amount': 150000000, 'Responsible_Name': '洪杰', 'Company_Location': '臺北市松山區南京東路3段255號', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0650504', 'Change_Of_Approval_Data': '1120627', 'Revoke_App_Date': '', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04274804'}</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8039,11 +7749,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04274804</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '04274804', 'Company_Status_Desc': '核准設立', 'Company_Name': '兄弟大飯店股份有限公司', 'Capital_Stock_Amount': 150000000, 'Paid_In_Capital_Amount': 150000000, 'Responsible_Name': '洪杰', 'Company_Location': '臺北市松山區南京東路3段255號', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0650504', 'Change_Of_Approval_Data': '1120627', 'Revoke_App_Date': '', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04274804'}</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8079,11 +7784,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04282733</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '04282733', 'Company_Status_Desc': '核准設立', 'Company_Name': '義田有限公司', 'Capital_Stock_Amount': 6000000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '劉鴻樟', 'Company_Location': '臺北市大同區迪化街1段32巷11號1樓', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0620319', 'Change_Of_Approval_Data': '1070521', 'Revoke_App_Date': '', 'Case_Status': '1', 'Case_Status_Desc': '停業副本', 'Sus_App_Date': '1131023', 'Sus_Beg_Date': '1131002', 'Sus_End_Date': '1141001', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04282733'}</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8119,11 +7819,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04282733</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '04282733', 'Company_Status_Desc': '核准設立', 'Company_Name': '義田有限公司', 'Capital_Stock_Amount': 6000000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '劉鴻樟', 'Company_Location': '臺北市大同區迪化街1段32巷11號1樓', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0620319', 'Change_Of_Approval_Data': '1070521', 'Revoke_App_Date': '', 'Case_Status': '1', 'Case_Status_Desc': '停業副本', 'Sus_App_Date': '1131023', 'Sus_Beg_Date': '1131002', 'Sus_End_Date': '1141001', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04282733'}</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8159,11 +7854,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04287977</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '04287977', 'Company_Status_Desc': '核准設立', 'Company_Name': '咸昶股份有限公司', 'Capital_Stock_Amount': 5600000, 'Paid_In_Capital_Amount': 5600000, 'Responsible_Name': '陳盈州', 'Company_Location': '新北市新莊區瓊林路59之75號', 'Register_Organization_Desc': '新北市政府', 'Company_Setup_Date': '0620704', 'Change_Of_Approval_Data': '1020807', 'Revoke_App_Date': '', 'Case_Status': '1', 'Case_Status_Desc': '停業', 'Sus_App_Date': '', 'Sus_Beg_Date': '1130701', 'Sus_End_Date': '1140630', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04287977'}</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8199,11 +7889,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04287977</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '04287977', 'Company_Status_Desc': '核准設立', 'Company_Name': '咸昶股份有限公司', 'Capital_Stock_Amount': 5600000, 'Paid_In_Capital_Amount': 5600000, 'Responsible_Name': '陳盈州', 'Company_Location': '新北市新莊區瓊林路59之75號', 'Register_Organization_Desc': '新北市政府', 'Company_Setup_Date': '0620704', 'Change_Of_Approval_Data': '1020807', 'Revoke_App_Date': '', 'Case_Status': '1', 'Case_Status_Desc': '停業', 'Sus_App_Date': '', 'Sus_Beg_Date': '1130701', 'Sus_End_Date': '1140630', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04287977'}</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8239,11 +7924,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04291424</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '04291424', 'Company_Status_Desc': '核准設立', 'Company_Name': '文美實業股份有限公司', 'Capital_Stock_Amount': 18000000, 'Paid_In_Capital_Amount': 18000000, 'Responsible_Name': '方文治', 'Company_Location': '臺北市中山區松江路152號11樓之13', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0620423', 'Change_Of_Approval_Data': '1110912', 'Revoke_App_Date': '', 'Case_Status': '3', 'Case_Status_Desc': '復業', 'Sus_App_Date': '1101007', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04291424'}</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8279,11 +7959,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04293703</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '04293703', 'Company_Status_Desc': '核准設立', 'Company_Name': '瑞仕設計印刷股份有限公司', 'Capital_Stock_Amount': 5000000, 'Paid_In_Capital_Amount': 500000, 'Responsible_Name': '陳政逸', 'Company_Location': '新北市板橋區中正路379巷1弄40號(1樓)', 'Register_Organization_Desc': '新北市政府', 'Company_Setup_Date': '0621031', 'Change_Of_Approval_Data': '1140115', 'Revoke_App_Date': '', 'Case_Status': '1', 'Case_Status_Desc': '停業', 'Sus_App_Date': '', 'Sus_Beg_Date': '1140521', 'Sus_End_Date': '1150520', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04293703'}</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8319,11 +7994,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04303977</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '04303977', 'Company_Status_Desc': '核准設立', 'Company_Name': '國棋五金機械有限公司', 'Capital_Stock_Amount': 5000000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '林育儀', 'Company_Location': '新北市三重區中興北路136巷18弄6號', 'Register_Organization_Desc': '新北市政府', 'Company_Setup_Date': '0630522', 'Change_Of_Approval_Data': '0941206', 'Revoke_App_Date': '', 'Case_Status': '1', 'Case_Status_Desc': '停業', 'Sus_App_Date': '', 'Sus_Beg_Date': '1131125', 'Sus_End_Date': '1141124', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04303977'}</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8359,11 +8029,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04314833</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '04314833', 'Company_Status_Desc': '核准設立', 'Company_Name': '麟鑫貿易有限公司', 'Capital_Stock_Amount': 5000000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '黃衍祥', 'Company_Location': '臺北市內湖區瑞光路258巷2號9樓', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0640110', 'Change_Of_Approval_Data': '1100324', 'Revoke_App_Date': '', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04314833'}</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8399,11 +8064,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04316380</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '04316380', 'Company_Status_Desc': '核准設立', 'Company_Name': '鴻傑股份有限公司', 'Capital_Stock_Amount': 29000000, 'Paid_In_Capital_Amount': 29000000, 'Responsible_Name': '陳燕飛', 'Company_Location': '新北市新莊區五工三路93號2樓', 'Register_Organization_Desc': '新北市政府', 'Company_Setup_Date': '0640208', 'Change_Of_Approval_Data': '1110708', 'Revoke_App_Date': '', 'Case_Status': '', 'Case_Status_Desc': '', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04316380'}</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8439,11 +8099,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04347659</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '04347659', 'Company_Status_Desc': '核准設立', 'Company_Name': '名盛有限公司', 'Capital_Stock_Amount': 5000000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '鄭勝義', 'Company_Location': '臺北市大安區安和路1段117巷16號1樓', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0650820', 'Change_Of_Approval_Data': '0880715', 'Revoke_App_Date': '', 'Case_Status': '1', 'Case_Status_Desc': '停業副本', 'Sus_App_Date': '1140103', 'Sus_Beg_Date': '1140101', 'Sus_End_Date': '1141231', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04347659'}</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8479,11 +8134,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04349740</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '04349740', 'Company_Status_Desc': '核准設立', 'Company_Name': '承暉企業有限公司', 'Capital_Stock_Amount': 5000000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '魏玉秀', 'Company_Location': '臺北市大同區承德路3段159巷9號1樓', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0761106', 'Change_Of_Approval_Data': '1080319', 'Revoke_App_Date': '', 'Case_Status': '3', 'Case_Status_Desc': '復業副本', 'Sus_App_Date': '1080905', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=04349740'}</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8519,11 +8169,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80412193</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '80412193', 'Company_Status_Desc': '核准設立', 'Company_Name': '五正明建設股份有限公司', 'Capital_Stock_Amount': 20650000, 'Paid_In_Capital_Amount': 20650000, 'Responsible_Name': '杜漢光', 'Company_Location': '高雄市三民區聯興路145巷38號地下層', 'Register_Organization_Desc': '高雄市政府經濟發展局', 'Company_Setup_Date': '0920606', 'Change_Of_Approval_Data': '1120107', 'Revoke_App_Date': '', 'Case_Status': '3', 'Case_Status_Desc': '復業', 'Sus_App_Date': '1121206', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80412193'}</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8559,11 +8204,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80415044</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '80415044', 'Company_Status_Desc': '核准設立', 'Company_Name': '瑞普科技有限公司', 'Capital_Stock_Amount': 1000000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '呂誌和', 'Company_Location': '新北市土城區清水路223號', 'Register_Organization_Desc': '新北市政府', 'Company_Setup_Date': '0920611', 'Change_Of_Approval_Data': '1050519', 'Revoke_App_Date': '', 'Case_Status': '1', 'Case_Status_Desc': '停業', 'Sus_App_Date': '', 'Sus_Beg_Date': '1130719', 'Sus_End_Date': '1140718', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80415044'}</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8599,11 +8239,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80422988</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '80422988', 'Company_Status_Desc': '核准設立', 'Company_Name': '德意治科技股份有限公司', 'Capital_Stock_Amount': 5000000, 'Paid_In_Capital_Amount': 5000000, 'Responsible_Name': '鄭翠娟', 'Company_Location': '新竹縣竹北市北崙里博愛街33號1樓', 'Register_Organization_Desc': '商業發展署(南投辦公區)', 'Company_Setup_Date': '0920620', 'Change_Of_Approval_Data': '1140115', 'Revoke_App_Date': '', 'Case_Status': '3', 'Case_Status_Desc': '復業', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80422988'}</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8639,11 +8274,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80440888</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '80440888', 'Company_Status_Desc': '核准設立', 'Company_Name': '展騏科技有限公司', 'Capital_Stock_Amount': 5000000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '蔡漢儀', 'Company_Location': '屏東縣長治鄉德和村德和路25之1號1樓之1', 'Register_Organization_Desc': '經濟部中部辦公室', 'Company_Setup_Date': '0920715', 'Change_Of_Approval_Data': '1070330', 'Revoke_App_Date': '       ', 'Case_Status': '3', 'Case_Status_Desc': '復業副本', 'Sus_App_Date': '1070413', 'Sus_Beg_Date': '       ', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80440888'}</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8679,11 +8309,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80454989</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '80454989', 'Company_Status_Desc': '核准設立', 'Company_Name': '立韋實業有限公司', 'Capital_Stock_Amount': 1000000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '黃銘偉', 'Company_Location': '臺中市龍井區福田里3鄰茄投路福頭崙巷13號1樓', 'Register_Organization_Desc': '臺中市政府', 'Company_Setup_Date': '0920804', 'Change_Of_Approval_Data': '1040918', 'Revoke_App_Date': '', 'Case_Status': '3', 'Case_Status_Desc': '復業', 'Sus_App_Date': '1110831', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80454989'}</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8719,11 +8344,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80467366</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '80467366', 'Company_Status_Desc': '核准設立', 'Company_Name': '勵仁國際有限公司', 'Capital_Stock_Amount': 1000000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '孫立人', 'Company_Location': '臺北市大安區辛亥路3段157巷22弄6號2樓', 'Register_Organization_Desc': '臺北市政府', 'Company_Setup_Date': '0920820', 'Change_Of_Approval_Data': '1021025', 'Revoke_App_Date': '', 'Case_Status': '1', 'Case_Status_Desc': '停業', 'Sus_App_Date': '', 'Sus_Beg_Date': '1140516', 'Sus_End_Date': '1150515', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80467366'}</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8759,11 +8379,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80469358</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '80469358', 'Company_Status_Desc': '核准設立', 'Company_Name': '盛鐵精密股份有限公司', 'Capital_Stock_Amount': 16000000, 'Paid_In_Capital_Amount': 16000000, 'Responsible_Name': '黃奇郎', 'Company_Location': '彰化縣鹿港鎮東石里環工六路33號', 'Register_Organization_Desc': '經濟部中部辦公室', 'Company_Setup_Date': '0920822', 'Change_Of_Approval_Data': '1091123', 'Revoke_App_Date': '', 'Case_Status': '3', 'Case_Status_Desc': '復業副本', 'Sus_App_Date': '1100226', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80469358'}</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -8799,11 +8414,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80477287</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '80477287', 'Company_Status_Desc': '解散', 'Company_Name': '全方位開發有限公司', 'Capital_Stock_Amount': 5000000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '', 'Company_Location': '新北市汐止區忠孝東路437號2樓', 'Register_Organization_Desc': '新北市政府', 'Company_Setup_Date': '0920903', 'Change_Of_Approval_Data': '1090205', 'Revoke_App_Date': '1130403', 'Case_Status': '3', 'Case_Status_Desc': '復業', 'Sus_App_Date': '1040605', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80477287'}</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8839,11 +8449,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80485293</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '80485293', 'Company_Status_Desc': '核准設立', 'Company_Name': '小魚兒國際行銷股份有限公司', 'Capital_Stock_Amount': 8000000, 'Paid_In_Capital_Amount': 8000000, 'Responsible_Name': '林靜霖', 'Company_Location': '彰化縣北斗鎮文昌里中興街227號1樓', 'Register_Organization_Desc': '商業發展署(南投辦公區)', 'Company_Setup_Date': '0920917', 'Change_Of_Approval_Data': '1131028', 'Revoke_App_Date': '', 'Case_Status': '3', 'Case_Status_Desc': '復業', 'Sus_App_Date': '1090410', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80485293'}</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -8879,11 +8484,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80500105</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '80500105', 'Company_Status_Desc': '核准設立', 'Company_Name': '上洺工程有限公司', 'Capital_Stock_Amount': 12000000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '王江立', 'Company_Location': '高雄市前鎮區一心二路128號7樓之1', 'Register_Organization_Desc': '高雄市政府經濟發展局', 'Company_Setup_Date': '0920723', 'Change_Of_Approval_Data': '1140224', 'Revoke_App_Date': '', 'Case_Status': '3', 'Case_Status_Desc': '復業', 'Sus_App_Date': '1090928', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80500105'}</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -8917,11 +8517,6 @@
       <c r="G81" t="inlineStr">
         <is>
           <t>https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80504427</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>{'Business_Accounting_NO': '80504427', 'Company_Status_Desc': '核准設立', 'Company_Name': '富凡妮有限公司', 'Capital_Stock_Amount': 20000000, 'Paid_In_Capital_Amount': 0, 'Responsible_Name': '陳宜青', 'Company_Location': '新北市淡水區中正東路2段27號8樓', 'Register_Organization_Desc': '新北市政府', 'Company_Setup_Date': '0920804', 'Change_Of_Approval_Data': '1130229', 'Revoke_App_Date': '', 'Case_Status': '3', 'Case_Status_Desc': '復業', 'Sus_App_Date': '', 'Sus_Beg_Date': '', 'Sus_End_Date': '', '查詢網址': 'https://data.gcis.nat.gov.tw/od/data/api/5F64D864-61CB-4D0D-8AD9-492047CC1EA6?$format=json&amp;$filter=Business_Accounting_NO%20eq%20=80504427'}</t>
         </is>
       </c>
     </row>
@@ -8936,7 +8531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8985,11 +8580,6 @@
           <t>網址</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>詳細資料</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -9030,11 +8620,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/7E6AFA72-AD6A-46D3-8681-ED77951D912D?$format=json&amp;$filter=President_No%20eq%20'01451256'%20and%20Agency%20eq%20376430000A&amp;$skip=0&amp;$top=50</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>{'President_No': '01451256', 'Business_Name': '金磚企業社', 'Business_Current_Status': '05', 'Business_Current_Status_Desc': '遷他縣市', 'Business_Register_Funds': 1, 'Responsible_Name': '施睿宏', 'Business_Organization_Type': '06', 'Business_Organization_Type_Desc': '獨資', 'Agency': '376430000A', 'Agency_Desc': '桃園市政府', 'Business_Address': '桃園市桃園區成功里春日路232號之2樓之1、3、4、9、10、11、12、13、14、15、16、17、18、19、20、21、22、23、24、25、27', 'Business_Setup_Approve_Date': '1021219', 'Business_Last_Change_Date': '1060913', 'Business_Director': [], '查詢網址': "https://data.gcis.nat.gov.tw/od/data/api/7E6AFA72-AD6A-46D3-8681-ED77951D912D?$format=json&amp;$filter=President_No%20eq%20'01451256'%20and%20Agency%20eq%20376430000A&amp;$skip=0&amp;$top=50"}</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -9075,11 +8660,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/7E6AFA72-AD6A-46D3-8681-ED77951D912D?$format=json&amp;$filter=President_No%20eq%20'01455838'%20and%20Agency%20eq%20376430000A&amp;$skip=0&amp;$top=50</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>{'President_No': '01455838', 'Business_Name': '泰緯興業社', 'Business_Current_Status': '01', 'Business_Current_Status_Desc': '核准設立', 'Business_Register_Funds': 5000000, 'Responsible_Name': '詹峯清', 'Business_Organization_Type': '06', 'Business_Organization_Type_Desc': '獨資', 'Agency': '376430000A', 'Agency_Desc': '桃園市政府', 'Business_Address': '桃園市桃園區汴洲里大業路2段235巷2號5樓', 'Business_Setup_Approve_Date': '1021204', 'Business_Last_Change_Date': '1051229', 'Business_Director': [], '查詢網址': "https://data.gcis.nat.gov.tw/od/data/api/7E6AFA72-AD6A-46D3-8681-ED77951D912D?$format=json&amp;$filter=President_No%20eq%20'01455838'%20and%20Agency%20eq%20376430000A&amp;$skip=0&amp;$top=50"}</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -9120,11 +8700,6 @@
           <t>https://data.gcis.nat.gov.tw/od/data/api/7E6AFA72-AD6A-46D3-8681-ED77951D912D?$format=json&amp;$filter=President_No%20eq%20'01525519'%20and%20Agency%20eq%20376430000A&amp;$skip=0&amp;$top=50</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>{'President_No': '01525519', 'Business_Name': '君將通訊行', 'Business_Current_Status': '01', 'Business_Current_Status_Desc': '核准設立', 'Business_Register_Funds': 16800, 'Responsible_Name': '謝樺徉', 'Business_Organization_Type': '06', 'Business_Organization_Type_Desc': '獨資', 'Agency': '376430000A', 'Agency_Desc': '桃園市政府', 'Business_Address': '桃園市龜山區文化里復興三路3號', 'Business_Setup_Approve_Date': '1021231', 'Business_Last_Change_Date': '1021231', 'Business_Director': [{'Business_Duty': '01', 'Business_Duty_Desc': '負責人', 'Name': '謝樺徉', 'Funds': 16800}], '查詢網址': "https://data.gcis.nat.gov.tw/od/data/api/7E6AFA72-AD6A-46D3-8681-ED77951D912D?$format=json&amp;$filter=President_No%20eq%20'01525519'%20and%20Agency%20eq%20376430000A&amp;$skip=0&amp;$top=50"}</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9163,11 +8738,6 @@
       <c r="H5" t="inlineStr">
         <is>
           <t>https://data.gcis.nat.gov.tw/od/data/api/7E6AFA72-AD6A-46D3-8681-ED77951D912D?$format=json&amp;$filter=President_No%20eq%20'02475777'%20and%20Agency%20eq%20376430000A&amp;$skip=0&amp;$top=50</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>{'President_No': '02475777', 'Business_Name': '裕達汽車工業社', 'Business_Current_Status': '01', 'Business_Current_Status_Desc': '核准設立', 'Business_Register_Funds': 40000, 'Responsible_Name': '王祥勲', 'Business_Organization_Type': '06', 'Business_Organization_Type_Desc': '獨資', 'Agency': '376430000A', 'Agency_Desc': '桃園市政府', 'Business_Address': '桃園市楊梅區中山里中山北路１段２４５號', 'Business_Setup_Approve_Date': '0770213', 'Business_Last_Change_Date': '1110810', 'Business_Director': [{'Business_Duty': '01', 'Business_Duty_Desc': '負責人', 'Name': '王祥勲', 'Funds': 40000}], '查詢網址': "https://data.gcis.nat.gov.tw/od/data/api/7E6AFA72-AD6A-46D3-8681-ED77951D912D?$format=json&amp;$filter=President_No%20eq%20'02475777'%20and%20Agency%20eq%20376430000A&amp;$skip=0&amp;$top=50"}</t>
         </is>
       </c>
     </row>
